--- a/Supplement_Table_Model_Comparison.xlsx
+++ b/Supplement_Table_Model_Comparison.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
   <si>
     <t>Economic</t>
   </si>
@@ -1739,6 +1739,339 @@
   </si>
   <si>
     <t>-0.437(-0.576–-0.403)</t>
+  </si>
+  <si>
+    <t>-0.777(-0.872–-0.567)</t>
+  </si>
+  <si>
+    <t>-0.716(-0.803–-0.624)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>-0.009(-0.035–0.000)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.046)</t>
+  </si>
+  <si>
+    <t>-0.002(-0.039–0.000)</t>
+  </si>
+  <si>
+    <t>-0.003(-0.112–0.088)</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>0.019(0.000–0.078)</t>
+  </si>
+  <si>
+    <t>-0.184(-0.199–0.000)</t>
+  </si>
+  <si>
+    <t>-0.028(-0.087–0.088)</t>
+  </si>
+  <si>
+    <t>0.007(-0.031–0.083)</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>-0.085(-0.091–-0.073)</t>
+  </si>
+  <si>
+    <t>-0.127(-0.135–0.000)</t>
+  </si>
+  <si>
+    <t>-0.119(-0.180–0.000)</t>
+  </si>
+  <si>
+    <t>-0.077(-0.145–0.000)</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>0.006(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.719(0.701–0.821)</t>
+  </si>
+  <si>
+    <t>0.206(0.000–0.669)</t>
+  </si>
+  <si>
+    <t>0.462(0.000–0.778)</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>0.527(0.519–0.560)</t>
+  </si>
+  <si>
+    <t>0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.117(0.000–0.290)</t>
+  </si>
+  <si>
+    <t>0.199(0.000–0.516)</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>-0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>-0.267(-0.275–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.252(-0.297–-0.163)</t>
+  </si>
+  <si>
+    <t>-0.048(-0.162–0.000)</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_MMR</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_DTaP</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_IPV</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_VAR</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_Total</t>
+  </si>
+  <si>
+    <t>Weight_MMR</t>
+  </si>
+  <si>
+    <t>Weight_DTaP</t>
+  </si>
+  <si>
+    <t>Weight_IPV</t>
+  </si>
+  <si>
+    <t>Weight_VAR</t>
+  </si>
+  <si>
+    <t>Weight_Total</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_MMR</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_DTaP</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_IPV</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_VAR</t>
+  </si>
+  <si>
+    <t>Distance_Optimal_Total</t>
+  </si>
+  <si>
+    <t>Weight_MMR</t>
+  </si>
+  <si>
+    <t>Weight_DTaP</t>
+  </si>
+  <si>
+    <t>Weight_IPV</t>
+  </si>
+  <si>
+    <t>Weight_VAR</t>
+  </si>
+  <si>
+    <t>Weight_Total</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>Trust_Medicine_or_Science</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>ReligousExemptions</t>
+  </si>
+  <si>
+    <t>-0.961(-0.965–-0.953)</t>
+  </si>
+  <si>
+    <t>-0.820(-0.833–-0.818)</t>
+  </si>
+  <si>
+    <t>-0.778(-0.806–-0.760)</t>
+  </si>
+  <si>
+    <t>-0.925(-0.950–-0.894)</t>
+  </si>
+  <si>
+    <t>PhilosophicalExemptions</t>
+  </si>
+  <si>
+    <t>-0.228(-0.233–-0.220)</t>
+  </si>
+  <si>
+    <t>-0.161(-0.162–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.150(-0.165–-0.138)</t>
+  </si>
+  <si>
+    <t>-0.094(-0.107–-0.083)</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>3.774(3.628–4.063)</t>
+  </si>
+  <si>
+    <t>2.653(2.277–3.062)</t>
+  </si>
+  <si>
+    <t>3.139(2.843–3.539)</t>
+  </si>
+  <si>
+    <t>3.569(2.706–4.898)</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>-0.001(-0.041–0.009)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.045)</t>
+  </si>
+  <si>
+    <t>-0.008(-0.205–0.041)</t>
+  </si>
+  <si>
+    <t>-0.010(-0.145–0.071)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>-0.574(-0.649–-0.532)</t>
+  </si>
+  <si>
+    <t>-0.437(-0.592–-0.403)</t>
   </si>
   <si>
     <t>-0.777(-0.872–-0.567)</t>
@@ -1905,58 +2238,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>497</v>
+        <v>608</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>502</v>
+        <v>613</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>509</v>
+        <v>620</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>510</v>
+        <v>621</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2">
@@ -12686,58 +13019,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>520</v>
+        <v>631</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>521</v>
+        <v>632</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>522</v>
+        <v>633</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>523</v>
+        <v>634</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>524</v>
+        <v>635</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>526</v>
+        <v>637</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>527</v>
+        <v>638</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>529</v>
+        <v>640</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>530</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2">
@@ -23459,39 +23792,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>537</v>
+        <v>648</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>538</v>
+        <v>649</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>539</v>
+        <v>650</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>540</v>
+        <v>651</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>541</v>
+        <v>652</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>543</v>
+        <v>654</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>545</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>532</v>
+        <v>643</v>
       </c>
       <c r="B2" s="0">
         <v>0.32919522716199096</v>
@@ -23523,7 +23856,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="B3" s="0">
         <v>0.33507152397743889</v>
@@ -23555,7 +23888,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>534</v>
+        <v>645</v>
       </c>
       <c r="B4" s="0">
         <v>0.11859520687396105</v>
@@ -23587,7 +23920,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>535</v>
+        <v>646</v>
       </c>
       <c r="B5" s="0">
         <v>0.30671801796852788</v>
@@ -23619,7 +23952,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="B6" s="0">
         <v>0.34963625135826215</v>
@@ -23674,192 +24007,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>546</v>
+        <v>657</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>561</v>
+        <v>672</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>566</v>
+        <v>677</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>571</v>
+        <v>682</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>576</v>
+        <v>687</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>581</v>
+        <v>692</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>591</v>
+        <v>702</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>601</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>547</v>
+        <v>658</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>552</v>
+        <v>663</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>557</v>
+        <v>668</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>562</v>
+        <v>673</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>567</v>
+        <v>678</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>577</v>
+        <v>688</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>582</v>
+        <v>693</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>587</v>
+        <v>698</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>592</v>
+        <v>703</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>597</v>
+        <v>708</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>602</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>548</v>
+        <v>659</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>558</v>
+        <v>669</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>563</v>
+        <v>674</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>568</v>
+        <v>679</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>573</v>
+        <v>684</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>588</v>
+        <v>699</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>593</v>
+        <v>704</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>598</v>
+        <v>709</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>603</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>554</v>
+        <v>665</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>559</v>
+        <v>670</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>564</v>
+        <v>675</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>574</v>
+        <v>685</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>579</v>
+        <v>690</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>584</v>
+        <v>695</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>589</v>
+        <v>700</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>594</v>
+        <v>705</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>599</v>
+        <v>710</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>604</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>550</v>
+        <v>661</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>560</v>
+        <v>671</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>565</v>
+        <v>676</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>570</v>
+        <v>681</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>575</v>
+        <v>686</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>585</v>
+        <v>696</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>590</v>
+        <v>701</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>595</v>
+        <v>706</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>605</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
